--- a/Owl/docs/绩效评分-测试事业部-产品研发部-崔永元.xlsx
+++ b/Owl/docs/绩效评分-测试事业部-产品研发部-崔永元.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Constantine-Projects\Owl\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7615F69-8153-4D43-80BD-B6B7B43905DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDAEC69-04C5-4FB7-A087-171E9B74A5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{FB500AD7-6AA8-4603-8490-B7888ED23A0A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{FB500AD7-6AA8-4603-8490-B7888ED23A0A}"/>
   </bookViews>
   <sheets>
     <sheet name="绩效评分" sheetId="1" r:id="rId1"/>
@@ -429,7 +429,7 @@
   </si>
   <si>
     <t>1、晶存项目完成dut显示两种映射的需求，解决与自动机连接不稳定的bug；
-2、三温四区项目完成3.5部分的开发，月末完成发货前版本的验证调试；
+2、三温四区项目完成3.5部分的开发，月末完成设备环境的搭建及3.4部分的测试验证；
 3、完成烧录bu的mes项目交接</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1254,27 +1254,27 @@
   <dimension ref="B1:O56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="2"/>
-    <col min="2" max="2" width="10.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13.25" style="2" customWidth="1"/>
-    <col min="9" max="10" width="12.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="10.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.21875" style="2" customWidth="1"/>
+    <col min="9" max="10" width="12.88671875" style="2" customWidth="1"/>
     <col min="11" max="11" width="14" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="2" customWidth="1"/>
     <col min="13" max="13" width="17" style="2" customWidth="1"/>
-    <col min="14" max="14" width="14.75" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.875" style="2"/>
+    <col min="14" max="14" width="14.77734375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
@@ -1283,7 +1283,7 @@
       <c r="E1" s="42"/>
       <c r="F1" s="42"/>
     </row>
-    <row r="2" spans="2:15" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:15" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="128.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15" ht="132" x14ac:dyDescent="0.25">
       <c r="B4" s="38" t="s">
         <v>10</v>
       </c>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="2:15" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:15" ht="66" x14ac:dyDescent="0.25">
       <c r="B5" s="38"/>
       <c r="C5" s="9" t="s">
         <v>26</v>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="38"/>
       <c r="C6" s="9" t="s">
         <v>31</v>
@@ -1357,7 +1357,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="38"/>
       <c r="C7" s="9" t="s">
         <v>32</v>
@@ -1366,7 +1366,7 @@
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
     </row>
-    <row r="8" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="38"/>
       <c r="C8" s="9" t="s">
         <v>33</v>
@@ -1378,7 +1378,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="38"/>
       <c r="C9" s="9" t="s">
         <v>34</v>
@@ -1387,7 +1387,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="38"/>
       <c r="C10" s="9" t="s">
         <v>35</v>
@@ -1396,7 +1396,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
     </row>
-    <row r="11" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="38"/>
       <c r="C11" s="9" t="s">
         <v>36</v>
@@ -1405,7 +1405,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
     </row>
-    <row r="12" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="38"/>
       <c r="C12" s="9" t="s">
         <v>37</v>
@@ -1414,7 +1414,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
     </row>
-    <row r="13" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="38"/>
       <c r="C13" s="9" t="s">
         <v>38</v>
@@ -1424,7 +1424,7 @@
       <c r="F13" s="6"/>
       <c r="H13" s="20"/>
     </row>
-    <row r="14" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="38"/>
       <c r="C14" s="9" t="s">
         <v>39</v>
@@ -1434,7 +1434,7 @@
       <c r="F14" s="6"/>
       <c r="H14" s="21"/>
     </row>
-    <row r="15" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="38"/>
       <c r="C15" s="9" t="s">
         <v>40</v>
@@ -1444,7 +1444,7 @@
       <c r="F15" s="6"/>
       <c r="H15" s="20"/>
     </row>
-    <row r="16" spans="2:15" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:15" ht="52.8" x14ac:dyDescent="0.25">
       <c r="B16" s="37" t="s">
         <v>27</v>
       </c>
@@ -1460,7 +1460,7 @@
       <c r="F16" s="16"/>
       <c r="H16" s="21"/>
     </row>
-    <row r="17" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" ht="52.8" x14ac:dyDescent="0.25">
       <c r="B17" s="37"/>
       <c r="C17" s="9" t="s">
         <v>26</v>
@@ -1474,7 +1474,7 @@
       <c r="F17" s="16"/>
       <c r="H17" s="21"/>
     </row>
-    <row r="18" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="37"/>
       <c r="C18" s="9" t="s">
         <v>31</v>
@@ -1490,7 +1490,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="37"/>
       <c r="C19" s="9" t="s">
         <v>32</v>
@@ -1506,7 +1506,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="37"/>
       <c r="C20" s="9" t="s">
         <v>33</v>
@@ -1522,7 +1522,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="37"/>
       <c r="C21" s="9" t="s">
         <v>34</v>
@@ -1538,7 +1538,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="37"/>
       <c r="C22" s="9" t="s">
         <v>35</v>
@@ -1554,7 +1554,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="37"/>
       <c r="C23" s="9" t="s">
         <v>36</v>
@@ -1570,7 +1570,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="37"/>
       <c r="C24" s="9" t="s">
         <v>37</v>
@@ -1584,7 +1584,7 @@
       <c r="F24" s="16"/>
       <c r="H24" s="21"/>
     </row>
-    <row r="25" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="37"/>
       <c r="C25" s="9" t="s">
         <v>38</v>
@@ -1598,7 +1598,7 @@
       <c r="F25" s="16"/>
       <c r="H25" s="21"/>
     </row>
-    <row r="26" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="37"/>
       <c r="C26" s="9" t="s">
         <v>39</v>
@@ -1612,7 +1612,7 @@
       <c r="F26" s="16"/>
       <c r="H26" s="20"/>
     </row>
-    <row r="27" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="37"/>
       <c r="C27" s="9" t="s">
         <v>40</v>
@@ -1625,7 +1625,7 @@
       </c>
       <c r="F27" s="16"/>
     </row>
-    <row r="28" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B28" s="37" t="s">
         <v>11</v>
       </c>
@@ -1640,7 +1640,7 @@
       </c>
       <c r="F28" s="16"/>
     </row>
-    <row r="29" spans="2:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B29" s="37"/>
       <c r="C29" s="9" t="s">
         <v>26</v>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="37"/>
       <c r="C30" s="9" t="s">
         <v>15</v>
@@ -1666,7 +1666,7 @@
       </c>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="37"/>
       <c r="C31" s="9" t="s">
         <v>16</v>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="F31" s="16"/>
     </row>
-    <row r="32" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="37"/>
       <c r="C32" s="9" t="s">
         <v>17</v>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="F32" s="16"/>
     </row>
-    <row r="33" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="37"/>
       <c r="C33" s="9" t="s">
         <v>18</v>
@@ -1705,7 +1705,7 @@
       </c>
       <c r="F33" s="16"/>
     </row>
-    <row r="34" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="37"/>
       <c r="C34" s="9" t="s">
         <v>19</v>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="F34" s="16"/>
     </row>
-    <row r="35" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="37"/>
       <c r="C35" s="9" t="s">
         <v>20</v>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="F35" s="16"/>
     </row>
-    <row r="36" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="37"/>
       <c r="C36" s="9" t="s">
         <v>21</v>
@@ -1747,7 +1747,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="37"/>
       <c r="C37" s="9" t="s">
         <v>22</v>
@@ -1760,7 +1760,7 @@
       </c>
       <c r="F37" s="16"/>
     </row>
-    <row r="38" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="37"/>
       <c r="C38" s="9" t="s">
         <v>23</v>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F38" s="16"/>
     </row>
-    <row r="39" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="37"/>
       <c r="C39" s="9" t="s">
         <v>24</v>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="F39" s="16"/>
     </row>
-    <row r="40" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B40" s="39" t="s">
         <v>12</v>
       </c>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="F40" s="16"/>
     </row>
-    <row r="41" spans="2:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B41" s="40"/>
       <c r="C41" s="9" t="s">
         <v>14</v>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="F41" s="16"/>
     </row>
-    <row r="42" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="40"/>
       <c r="C42" s="9" t="s">
         <v>15</v>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="F42" s="16"/>
     </row>
-    <row r="43" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="40"/>
       <c r="C43" s="9" t="s">
         <v>16</v>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="F43" s="16"/>
     </row>
-    <row r="44" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="40"/>
       <c r="C44" s="9" t="s">
         <v>17</v>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="F44" s="16"/>
     </row>
-    <row r="45" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="40"/>
       <c r="C45" s="9" t="s">
         <v>18</v>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="F45" s="16"/>
     </row>
-    <row r="46" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="40"/>
       <c r="C46" s="9" t="s">
         <v>19</v>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="F46" s="16"/>
     </row>
-    <row r="47" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="40"/>
       <c r="C47" s="9" t="s">
         <v>20</v>
@@ -1893,7 +1893,7 @@
       <c r="F47" s="15"/>
       <c r="G47" s="14"/>
     </row>
-    <row r="48" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="40"/>
       <c r="C48" s="9" t="s">
         <v>21</v>
@@ -1907,7 +1907,7 @@
       <c r="F48" s="15"/>
       <c r="G48" s="14"/>
     </row>
-    <row r="49" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="40"/>
       <c r="C49" s="9" t="s">
         <v>22</v>
@@ -1921,7 +1921,7 @@
       <c r="F49" s="15"/>
       <c r="G49" s="14"/>
     </row>
-    <row r="50" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="40"/>
       <c r="C50" s="9" t="s">
         <v>23</v>
@@ -1935,7 +1935,7 @@
       <c r="F50" s="15"/>
       <c r="G50" s="14"/>
     </row>
-    <row r="51" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="41"/>
       <c r="C51" s="9" t="s">
         <v>24</v>
@@ -1949,7 +1949,7 @@
       <c r="F51" s="15"/>
       <c r="G51" s="14"/>
     </row>
-    <row r="52" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G52" s="10"/>
       <c r="H52" s="11"/>
       <c r="I52" s="12"/>
@@ -1959,15 +1959,15 @@
       <c r="M52" s="13"/>
       <c r="N52" s="14"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="G53" s="10"/>
       <c r="H53" s="10"/>
       <c r="N53" s="10"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="N54" s="10"/>
     </row>
-    <row r="55" spans="2:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C55" s="17" t="s">
         <v>7</v>
       </c>
@@ -1979,12 +1979,12 @@
       </c>
       <c r="F55" s="19"/>
     </row>
-    <row r="56" spans="2:14" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C56" s="18" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="18">
-        <v>20250227</v>
+        <v>20250228</v>
       </c>
       <c r="E56" s="18" t="s">
         <v>9</v>
@@ -2014,19 +2014,19 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="45.125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="35.625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="32.625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="34.375" style="25" customWidth="1"/>
-    <col min="7" max="7" width="27.5" style="25" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="25"/>
+    <col min="1" max="1" width="8.44140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="45.109375" style="25" customWidth="1"/>
+    <col min="4" max="4" width="35.6640625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="34.33203125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="27.44140625" style="25" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="35" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="35" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>46</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="66" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>48</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="66" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>50</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="66" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>52</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>54</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="79.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
         <v>56</v>
       </c>
